--- a/Web scraping/Publimetro/Publimetro_2016_2018_total.xlsx
+++ b/Web scraping/Publimetro/Publimetro_2016_2018_total.xlsx
@@ -106,12 +106,12 @@
     <t>¿Será cierto?, esto dijo la enfermera que amenazó de muerte a Álvaro Uribe por Twitter</t>
   </si>
   <si>
+    <t>Rafael Uribe Noguera confesó violación y asesinato de Yuliana Samboní</t>
+  </si>
+  <si>
     <t>Cámara de seguridad registra brutal asesinato en panadería del oriente de Cali</t>
   </si>
   <si>
-    <t>Rafael Uribe Noguera confesó violación y asesinato de Yuliana Samboní</t>
-  </si>
-  <si>
     <t>Rafael Uribe Noguera, conociendo los detalles del crimen desde su personalidad</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t>2018/06/02</t>
   </si>
   <si>
+    <t>2016/12/14</t>
+  </si>
+  <si>
     <t>2016/01/15</t>
   </si>
   <si>
-    <t>2016/12/14</t>
-  </si>
-  <si>
     <t>2016/12/22</t>
   </si>
   <si>
@@ -310,12 +310,12 @@
     <t xml:space="preserve"> El domingo 27 de mayo, la enfermera Andreina Vargas publicó en su cuenta de Twitter un mensaje en el que resumió todo su odio contra el expresidente y hoy senador Álvaro Uribe Vélez. "Cómo es que nadie en alguna multitud ha sido capaz de meterle un balazo a este perro degenerado hey muérete maldito viejo gonorriento @AlvaroUribeVel", dijo la mujer en su trino.  Aunque luego lo borró, algunos usuarios de esta red social alcanzaron a tomarle un pantallazo para presentarlo como prueba de una amenaza de muerte. Una de las personas que publicó la captura de pantalla aseguró que la joven trabajaba en Santa Marta y compartió varias fotos de ella. Con estas pruebas, la Fiscalía anunció la apertura de una investigación preliminar para ubicar a la responsable del mensaje, medida que hizo que la mujer apareciera para 'aclarar' el asunto. Según su versión, el trino no fue de su autoría sino que fue víctima de algún hacker que ingresó a su cuenta y escribió la amenaza. “Ha sido algo demasiado controversial. Yo jamás en mi vida pensé llegar a estar metida en un problema de estos y menos sin mi intención. Yo también necesito saber quién me odia tanto, quién quiso hacer una broma tan de mal gusto”, le dijo Vargas al portal La lengua Caribe. Hasta ahora, ni la Fiscalía ni el senador se han vuelto a pronunciar sobre el caso. Más noticias de Colombia, aquí.  También le puede interesar:</t>
   </si>
   <si>
+    <t xml:space="preserve"> Rafael Uribe Noguera confesó el asesinato y violación de Yuliana Samboní. Esta información no había sido revelada oficialmente para evitar obstrucciones en la investigación que aún se adelanta; pues la Fiscalía indaga qué hizo Francisco Uribe, durante las 4 horas que el ente acusador estaba buscando a su hermano Rafael. Otro hecho que es motivo de investigación es que Uribe no fue el único que participó en la tortura y asesinato que sufrió la menor. Según la Fiscalía, otra persona ayudo a Rafael en el crimen, pero aun se desconoce quién es ese tercer implicado. Las cámaras, el cuerpo de la menor y las pruebas biológicas entro otro material probatorio que se ha recogido la Fiscalía confirman que Rafael Noguera abusó sexualmente y mató a la pequeña Yuliana. La confesión de Uribe Noguera, pudo darse debido a las abundantes pruebas que la Fiscalía tiene en su contra; pues se confirmó que dentro de la camioneta la menor sufrió una brutal tortura que quedó grabada en cámara. La investigación se apoya en más de 80 pruebas que serán la base para pedir que Rafael Uribe Noguera sea condenado por el crimen de Yuliana Samboní. Ente esas pruebas tiene 30 videos de las 7 cámaras de seguridad del edificio Equus 66 en donde se cometió el crimen. La entidad también aseguró que Fernando Merchán, el vigilante que falleció el pasado viernes, estaría involucrado en el crimen porque se encontraron imprecisiones en sus declaraciones y las anotaciones que hizo en la minuta del edificio. Según Néstor Humberto Martínez, fiscal general de la Nación, el escrito acusatorio contra el arquitecto será entregado a más tardar el jueves. Además señaló que, según las pruebas recolectadas, el vigilante sería cómplice del crimen. Vale la pena agregar que Rafael Uribe Noguera tendrá que responder por feminicidio agravado, acceso carnal violento, tortura y secuestro simple; hechos que le podrán darle hasta 60 años de cárcel.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Conmoción ha causado en las últimas horas en Cali un video de una cámara de seguridad donde quedó registrado el momento en el que un comerciante es masacrado brutalmente por dos hombres. El hecho ocurrió este jueves en la noche, hacia las 10:00 p.m., en una panadería del barrio Ómar Torrijos, del oriente de la capital del Valle del Cauca. En el video se puede apreciar cómo un hombre desenfunda una subametralladora automática tipo mini Uzi y arremete contra un individuo que se encontraba comiendo en el local comercial.  LE PODRÍA INTERESAR: Sicarios asesinan a dos hombres en Cali La víctima, identificada por las autoridades como Martín Esteban Alegría, de 34 años, recibe múltiples disparos sin poder hacer nada. A los pocos segundos, en medio del caos ocasionado por el atentado, un segundo criminal se acerca a Alegría y lo remata con un revólver. La Policía Metropolitana de Cali está adelantando operativos en la zona para dar con los responsables de este hecho, utilizando videos de las cámaras de seguridad de la panadería y el sector. LEA TAMBIÉN: Las armas de fuego acabaron con la vida del 80 % de los niños asesinados en Cali este año </t>
   </si>
   <si>
-    <t xml:space="preserve"> Rafael Uribe Noguera confesó el asesinato y violación de Yuliana Samboní. Esta información no había sido revelada oficialmente para evitar obstrucciones en la investigación que aún se adelanta; pues la Fiscalía indaga qué hizo Francisco Uribe, durante las 4 horas que el ente acusador estaba buscando a su hermano Rafael. Otro hecho que es motivo de investigación es que Uribe no fue el único que participó en la tortura y asesinato que sufrió la menor. Según la Fiscalía, otra persona ayudo a Rafael en el crimen, pero aun se desconoce quién es ese tercer implicado. Las cámaras, el cuerpo de la menor y las pruebas biológicas entro otro material probatorio que se ha recogido la Fiscalía confirman que Rafael Noguera abusó sexualmente y mató a la pequeña Yuliana. La confesión de Uribe Noguera, pudo darse debido a las abundantes pruebas que la Fiscalía tiene en su contra; pues se confirmó que dentro de la camioneta la menor sufrió una brutal tortura que quedó grabada en cámara. La investigación se apoya en más de 80 pruebas que serán la base para pedir que Rafael Uribe Noguera sea condenado por el crimen de Yuliana Samboní. Ente esas pruebas tiene 30 videos de las 7 cámaras de seguridad del edificio Equus 66 en donde se cometió el crimen. La entidad también aseguró que Fernando Merchán, el vigilante que falleció el pasado viernes, estaría involucrado en el crimen porque se encontraron imprecisiones en sus declaraciones y las anotaciones que hizo en la minuta del edificio. Según Néstor Humberto Martínez, fiscal general de la Nación, el escrito acusatorio contra el arquitecto será entregado a más tardar el jueves. Además señaló que, según las pruebas recolectadas, el vigilante sería cómplice del crimen. Vale la pena agregar que Rafael Uribe Noguera tendrá que responder por feminicidio agravado, acceso carnal violento, tortura y secuestro simple; hechos que le podrán darle hasta 60 años de cárcel.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ¿Cómo es que un hombre encantador, exitoso profesionalmente, muy atractivo para las mujeres y con un círculo social poderoso, como describían a Rafael Uribe Noguera, termina convirtiéndose en uno de los asesinos más despreciados del país en la actualidad?. Para respondernos esto sobre el asesino y violador de Yuliana Samboní hablamos con el perfilador criminal Belisario Valbuena, quien sin dudarlo señaló que el arquitecto bogotano tiene todas las características de un psicópata. “Él empieza a adquirir rasgos psicopáticos o lo que en psicología y psiquiatría se conoce como trastorno antisocial de la personalidad. Eso es básicamente la incapacidad de no sentir empatía por el otro, de no sentir consideración por el otro, de no respetarlo. Son sujetos que quieren conseguir placer a cualquier costo, que lastiman a los demás, no reconocen al otro como un humano, lo ‘cosifican’, y esa mezcla de estas variables que he mencionado crearon el monstruo en el que se convirtió”, comentó Valbuena. Para entender un poco mejor el comportamiento de Uribe Noguera hay que remitirse a su infancia. Valbuena  comentó a PUBLIMETRO que en la formación de una persona se necesitan pautas de crianza, pero estamos frente a un caso en donde hubo una niñez sin límites, que se vio incluso reflejada en su vida adulta. “Él empieza a tener esas fallas de no tener límites, no se le enseñó a diferenciar lo correcto de lo incorrecto. Súmele a eso que él en edad escolar empieza a abusar del alcohol, lo sé porque tengo un amigo que fue compañero de curso de Rafael Uribe en el Moderno y él era el tipo de persona bastante rumbera, que armaba los planes y consumía alcohol, que luego lo llevó a las drogas”, añadió. Las drogas y el alcohol influyeron para que Uribe Noguera asesinara y violara. En otras palabras, y para aclarar, no es que el “uso de alcohol y drogas desencadenen un acto de violencia sexual, pero sí facilita que el ataque se presente porque bajo su influencia no hay temor a nada”, aclaró Valbuena. De hecho, se corre más riesgo de presentar este tipo de comportamientos bajo los efectos de “drogas estimulantes como la cocaína y las anfetaminas, que ayudan para que las personas se atrevan a muchas cosas que difícilmente harían en un estado de sobriedad”, aseguró el experto. Rafael Uribe Noguera es lo que se conoce como un psicópata integrado que es el más peligroso. “Un psicópata integrado puede ser cualquiera porque tienen un círculo de amigos, son exitosos laboralmente, socialmente encantadores y son personas cariñosas, pero esconden esa faceta de monstruo como es el caso de Uribe Noguera con el alcohol y las drogas”, enfatizó. Valbuena además fue claro al decir que este tipo de personas tienen fetiches: “Él se untaba aceite en el cuerpo porque es un fetiche para tener relaciones sexuales. Las mordidas también hacen parte de eso, pero es que más que tener relaciones sexuales, para ellos lo importante es ejercer el control  humillación sobre la víctima. En este punto quiero aclarar que es un mito que el aceite de cocina se usara para borrar evidencia, soy médico forense y trabajo en eso y le puedo decir que el aceite de cocina no sirve. No es fácil borrar evidencias”, argumentó Valbuena. Asimismo, el perfilador criminal aseguró que hay muchos factores que le dan luces para saber qué tipo de psicópata es Rafael Uribe Noguera. “Él estaba consciente de todo lo que hizo. Si se hubiera arrepentido del asesinato tapa a la niña con una sábana o ni siquiera la hubiera dejado desnuda, porque eso es una forma de humillarla y lo que él hizo, además que es imputable, fue ocultar el cadáver y las prendas, y tratar de borrar evidencia en un acto desesperado”, añadió. Rafael Uribe comparte muchas características con Pedro Alonso López, ‘El monstruo de Los Andes’, considerado uno de los peores asesinos en serie de la historia con más de 300 muertes confensas, quien se quedaba con sus víctimas en posición fetal hasta que su cuerpo se enfriaba, lo que pudo generarle placer. “Seguramente Uribe Noguera sintió placer al ver cómo se le apagaban los ojos a Yuliana y eso como perfilador criminal me dice que él estaba consciente de lo que hacía”, añadió Valbuena. Todos estos rasgos servirán para conocer más detalles de lo que pasaba por la mente de Uribe Noguera cuando cometió el asesinato y la violación de Yuliana. Finalmente, Valbuena asegura que no hay forma de saber quién es un psicópata porque son como camaleones, se saben camuflar, y generalmente quien se da cuenta de su comportamiento fuera de lo normal son sus parejas ya que suelen ser agresivos y maltratadores. Se espera que Uribe Noguera sea condenado con todo el peso de la ley, Valbuena así lo cree porque son delitos muy graves a los que se enfrenta. “Para mí, él va a morir en la cárcel”, concluyó.</t>
   </si>
   <si>
@@ -418,10 +418,10 @@
     <t>https://www.publimetro.co/co/noticias/2018/06/02/sera-cierto-dijo-la-enfermera-amenazo-muerte-alvaro-uribe-twitter.html</t>
   </si>
   <si>
+    <t>https://www.publimetro.co/co/bogota/2016/12/14/rafael-uribe-noguera-confeso-asesinato-violacion-yuliana-samboni.html</t>
+  </si>
+  <si>
     <t>https://www.publimetro.co/co/cali/2016/01/15/camara-seguridad-registra-brutal-asesinato-panaderia-oriente-cali.html</t>
-  </si>
-  <si>
-    <t>https://www.publimetro.co/co/bogota/2016/12/14/rafael-uribe-noguera-confeso-asesinato-violacion-yuliana-samboni.html</t>
   </si>
   <si>
     <t>https://www.publimetro.co/co/bogota/2016/12/22/rafael-uribe-noguera-detalles-asesinato-violacion-yuliana-samboni.html</t>
